--- a/results/yq_test/Wstate_cz/Rb2Re4/cz_2q_wstate_indep_qiskit_10.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Wstate_cz/Rb2Re4/cz_2q_wstate_indep_qiskit_10.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0176398754119873</v>
+        <v>0.0005860328674316406</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0004940032958984375</v>
+        <v>0.0006051063537597656</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0003437995910644531</v>
+        <v>0.005048990249633789</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 2), (1, 3), (1, 1), (1, 0), (1, 2), (0, 3), (0, 2), (0, 1), (0, 0)]</t>
+          <t>[[2, 0], [2, 2], [1, 3], [1, 1], [1, 0], [1, 2], [0, 3], [0, 2], [0, 1], [0, 0]]</t>
         </is>
       </c>
     </row>
@@ -656,110 +656,120 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.03009605407714844</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.009531974792480469</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
